--- a/项目数据表.xlsx
+++ b/项目数据表.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\工作跟进\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="24735" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -19,7 +24,7 @@
     <author>Xiao</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>产品</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -441,28 +446,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>致命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>提示</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>多次激活bug数</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗留BUG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无测试用例的bug数</t>
@@ -578,15 +567,39 @@
     <t>可写特定客户版本、主要需求、需要描述的过程主要事件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug栏目里全部填写新发现的Bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留BUG数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +658,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +713,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -730,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +783,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +790,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,11 +807,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -828,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,9 +893,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,6 +928,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1069,14 +1104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -1089,7 +1124,7 @@
     <col min="15" max="15" width="8.25" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="5.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.625" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="9" bestFit="1" customWidth="1"/>
@@ -1099,11 +1134,11 @@
     <col min="31" max="32" width="11" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="22.5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="15.125" style="11" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,101 +1185,121 @@
         <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AB1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AC1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AK1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AL1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AM1" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="67.5">
-      <c r="A2" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="W2" s="16"/>
       <c r="AB2" t="e">
         <f>T2/O2</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AC2" t="e">
         <f>O2/L2</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AD2" t="e">
         <f>X2/L2</f>
@@ -1256,11 +1311,11 @@
       </c>
       <c r="AF2" t="e">
         <f>X2/O2</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AG2" t="e">
         <f>O2/K2</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH2" t="e">
         <f>X2/K2</f>
@@ -1272,29 +1327,29 @@
       </c>
       <c r="AJ2" t="e">
         <f>V2/O2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK2" s="12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK2" s="11" t="e">
         <f>F2-D2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AL2" s="12">
+      <c r="AL2" s="11">
         <f>G2-E2</f>
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
       </c>
       <c r="AB3" t="e">
         <f>T3/O3</f>
@@ -1332,53 +1387,54 @@
         <f>V3/O3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AK3" s="11">
         <f>F3-D3</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="12">
+      <c r="AL3" s="11">
         <f>G3-E3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>